--- a/INTLINE/data/142/STANOR/03700 Harmonized index of consumer prices.xlsx
+++ b/INTLINE/data/142/STANOR/03700 Harmonized index of consumer prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <x:si>
     <x:t>03700: Harmonized index of consumer prices (2015=100), by month, consumption group and contents</x:t>
   </x:si>
@@ -967,6 +967,15 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>Revised figures from August 2003 to November 2003. From January 2011 the HICP weights are based on National Accounts data.</x:t>
   </x:si>
   <x:si>
@@ -979,7 +988,7 @@
     <x:t>Harmonized index of consumer prices:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220310 08:00</x:t>
+    <x:t>20220610 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1420,7 +1429,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B359"/>
+  <x:dimension ref="A1:B362"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3956,135 +3965,159 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
+    <x:row r="319" spans="1:2">
+      <x:c r="A319" s="2" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B319" s="3" t="n">
+        <x:v>120.9</x:v>
+      </x:c>
+    </x:row>
     <x:row r="320" spans="1:2">
-      <x:c r="A320" s="4" t="s">
-        <x:v>317</x:v>
+      <x:c r="A320" s="2" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B320" s="3" t="n">
+        <x:v>122.7</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:2">
-      <x:c r="A321" s="4" t="s">
-        <x:v>318</x:v>
+      <x:c r="A321" s="2" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B321" s="3" t="n">
+        <x:v>122.9</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:2">
-      <x:c r="A323" s="0" t="s">
-        <x:v>319</x:v>
+      <x:c r="A323" s="4" t="s">
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:2">
-      <x:c r="A324" s="0" t="s">
-        <x:v>320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="325" spans="1:2">
-      <x:c r="A325" s="0" t="s">
+      <x:c r="A324" s="4" t="s">
         <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:2">
+      <x:c r="A326" s="0" t="s">
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:2">
       <x:c r="A327" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:2">
       <x:c r="A328" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:2">
       <x:c r="A330" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:2">
       <x:c r="A331" s="0" t="s">
-        <x:v>320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="332" spans="1:2">
-      <x:c r="A332" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:2">
       <x:c r="A333" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:2">
       <x:c r="A334" s="0" t="s">
-        <x:v>327</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="338" spans="1:2">
-      <x:c r="A338" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:2">
+      <x:c r="A335" s="0" t="s">
         <x:v>328</x:v>
       </x:c>
     </x:row>
-    <x:row r="340" spans="1:2">
-      <x:c r="A340" s="0" t="s">
+    <x:row r="336" spans="1:2">
+      <x:c r="A336" s="0" t="s">
         <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:2">
+      <x:c r="A337" s="0" t="s">
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:2">
       <x:c r="A341" s="0" t="s">
-        <x:v>320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="342" spans="1:2">
-      <x:c r="A342" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:2">
       <x:c r="A343" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:2">
       <x:c r="A344" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:2">
       <x:c r="A345" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:2">
+      <x:c r="A346" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:2">
+      <x:c r="A347" s="0" t="s">
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:2">
       <x:c r="A348" s="0" t="s">
-        <x:v>320</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="349" spans="1:2">
-      <x:c r="A349" s="0" t="s">
-        <x:v>333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="355" spans="1:2">
-      <x:c r="A355" s="0" t="s">
-        <x:v>334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="356" spans="1:2">
-      <x:c r="A356" s="0" t="s">
         <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:2">
+      <x:c r="A351" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:2">
+      <x:c r="A352" s="0" t="s">
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:2">
       <x:c r="A358" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:2">
       <x:c r="A359" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361" spans="1:2">
+      <x:c r="A361" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362" spans="1:2">
+      <x:c r="A362" s="0" t="s">
+        <x:v>340</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A320:B320"/>
-    <x:mergeCell ref="A321:B321"/>
+    <x:mergeCell ref="A323:B323"/>
+    <x:mergeCell ref="A324:B324"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
